--- a/Textbooks, projects/Applied Math/labs/lab_2/var_16/lab_2_var_16.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_2/var_16/lab_2_var_16.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D770678-AEB0-43C6-9CB9-2505742B1C70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE19D1F-3A74-423C-B50A-BB04CFC4C015}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2336,7 +2336,7 @@
   <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,11 +2439,11 @@
         <v>-0.15408882332231733</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">ABS(A3-C3)</f>
+        <f t="shared" ref="G3:G11" si="1">ABS(A3-C3)</f>
         <v>0.25</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H15" si="2">IF(G3&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="H3:H11" si="2">IF(G3&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
       <c r="X3" s="1">
@@ -2456,27 +2456,27 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A15" si="4">IF(D3*F3&gt;0,C3,A3)</f>
+        <f t="shared" ref="A4:A11" si="4">IF(D3*F3&gt;0,C3,A3)</f>
         <v>0.75</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B15" si="5">IF(E3*F3&gt;0,C3,B3)</f>
+        <f t="shared" ref="B4:B11" si="5">IF(E3*F3&gt;0,C3,B3)</f>
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C15" si="6">(A4+B4)/2</f>
+        <f t="shared" ref="C4:C11" si="6">(A4+B4)/2</f>
         <v>0.875</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D15" si="7">1/2*SIN(((A4+3)^2)/2)+LN(A4+2)/2-1</f>
+        <f t="shared" ref="D4:D11" si="7">1/2*SIN(((A4+3)^2)/2)+LN(A4+2)/2-1</f>
         <v>-0.15408882332231733</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E15" si="8">1/2*SIN(((B4+3)^2)/2)+LN(B4+2)/2-1</f>
+        <f t="shared" ref="E4:E11" si="8">1/2*SIN(((B4+3)^2)/2)+LN(B4+2)/2-1</f>
         <v>4.3985267645745729E-2</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F15" si="9">1/2*SIN(((C4+3)^2)/2)+LN(C4+2)/2-1</f>
+        <f t="shared" ref="F4:F11" si="9">1/2*SIN(((C4+3)^2)/2)+LN(C4+2)/2-1</f>
         <v>-1.6339567226766327E-3</v>
       </c>
       <c r="G4">
@@ -2925,23 +2925,23 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:A34" si="10">A25-B26/C26</f>
+        <f t="shared" ref="A26:A29" si="10">A25-B26/C26</f>
         <v>1.1456538576239512</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:B34" si="11">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
+        <f t="shared" ref="B26:B29" si="11">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
         <v>-0.42138186085733298</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C34" si="12">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
+        <f t="shared" ref="C26:C29" si="12">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
         <v>-2.0247562503055536</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D34" si="13">ABS(A26-A25)</f>
+        <f t="shared" ref="D26:D29" si="13">ABS(A26-A25)</f>
         <v>0.20811485866199586</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E34" si="14">IF(D26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="E26:E29" si="14">IF(D26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
       <c r="G26" s="1">
@@ -2958,7 +2958,7 @@
         <v>8.9535972094153538E-3</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" ref="K26:K56" si="18">IF(J26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="K26:K47" si="18">IF(J26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
     </row>
@@ -3405,16 +3405,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G56" si="22">G45-H46/$I$24</f>
+        <f t="shared" ref="G46:G47" si="22">G45-H46/$I$24</f>
         <v>0.8830740421109341</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" ref="H46:H56" si="23">1/2*SIN(((G45+3)^2)/2)+LN(G45+2)/2-1</f>
+        <f t="shared" ref="H46:H47" si="23">1/2*SIN(((G45+3)^2)/2)+LN(G45+2)/2-1</f>
         <v>5.7337204067633429E-3</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1">
-        <f t="shared" ref="J46:J56" si="24">ABS(G46-G45)</f>
+        <f t="shared" ref="J46:J47" si="24">ABS(G46-G45)</f>
         <v>1.1467440813526242E-3</v>
       </c>
       <c r="K46" s="1" t="str">
@@ -3610,7 +3610,7 @@
         <v>0.3723676205732378</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">ABS(A3-C3)</f>
+        <f t="shared" ref="G3:G11" si="1">ABS(A3-C3)</f>
         <v>0.25</v>
       </c>
       <c r="H3" s="1" t="str">
@@ -3635,7 +3635,7 @@
         <v>4.25</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C15" si="6">(A4+B4)/2</f>
+        <f t="shared" ref="C4:C11" si="6">(A4+B4)/2</f>
         <v>4.125</v>
       </c>
       <c r="D4" s="1">
@@ -4096,40 +4096,40 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" ref="A26:A29" si="7">A25-B26/C26</f>
+        <f t="shared" ref="A26:A27" si="7">A25-B26/C26</f>
         <v>4.1161484213222419</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:B34" si="8">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
+        <f t="shared" ref="B26:B27" si="8">1/2*SIN(((A25+3)^2)/2)+LN(A25+2)/2-1</f>
         <v>7.3884537985525522E-2</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:C34" si="9">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
+        <f t="shared" ref="C26:C27" si="9">(1/2)*(COS(((A25+3)^2)/2)*(A25+3)+1/(A25+2))</f>
         <v>3.4461516384195079</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:D34" si="10">ABS(A26-A25)</f>
+        <f t="shared" ref="D26:D27" si="10">ABS(A26-A25)</f>
         <v>2.1439723418383849E-2</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f t="shared" ref="E26:E29" si="11">IF(D26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="E26:E27" si="11">IF(D26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G47" si="12">G25-H26/$I$24</f>
+        <f t="shared" ref="G26:G29" si="12">G25-H26/$I$24</f>
         <v>4.1064369049395708</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ref="H26:H47" si="13">1/2*SIN(((G25+3)^2)/2)+LN(G25+2)/2-1</f>
+        <f t="shared" ref="H26:H29" si="13">1/2*SIN(((G25+3)^2)/2)+LN(G25+2)/2-1</f>
         <v>-0.13238549437931746</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <f t="shared" ref="J26:J47" si="14">ABS(G26-G25)</f>
+        <f t="shared" ref="J26:J29" si="14">ABS(G26-G25)</f>
         <v>2.6477098875863803E-2</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f t="shared" ref="K26:K47" si="15">IF(J26&gt;0.001,"no","yes")</f>
+        <f t="shared" ref="K26:K29" si="15">IF(J26&gt;0.001,"no","yes")</f>
         <v>no</v>
       </c>
     </row>
